--- a/snipeCounts/SnipeCount.xlsx
+++ b/snipeCounts/SnipeCount.xlsx
@@ -391,7 +391,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -418,50 +418,6 @@
       <c r="D1" t="inlineStr">
         <is>
           <t>gotSniped</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>crystal</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>156891133086007296</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>156891133086007296</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
@@ -476,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,39 +477,7 @@
         </is>
       </c>
       <c r="H1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>260222160272883713</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>crystal</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>156891133086007296</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>26/09/2023</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>13:31:32</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
